--- a/file/eth_weekly_return.xlsx
+++ b/file/eth_weekly_return.xlsx
@@ -385,7 +385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G262"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6403,12 +6403,58 @@
         <v>4201.538415</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>4135.093812</v>
       </c>
       <c r="F262" t="n">
         <v>-0.02237967689844855</v>
       </c>
       <c r="G262" t="n">
+        <v>-0.01580833622120992</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>261</v>
+      </c>
+      <c r="C263" s="2" t="n">
+        <v>44543</v>
+      </c>
+      <c r="D263" t="n">
+        <v>4134.991623</v>
+      </c>
+      <c r="E263" t="n">
+        <v>3924.82665</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-0.01583867274958617</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-0.050849429676736</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>262</v>
+      </c>
+      <c r="C264" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="D264" t="n">
+        <v>3924.82665</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>-0.05082597310016357</v>
+      </c>
+      <c r="G264" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/file/eth_weekly_return.xlsx
+++ b/file/eth_weekly_return.xlsx
@@ -385,7 +385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G264"/>
+  <dimension ref="A1:G266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6446,15 +6446,61 @@
         <v>44550</v>
       </c>
       <c r="D264" t="n">
-        <v>3924.82665</v>
+        <v>3924.826241</v>
       </c>
       <c r="E264" t="n">
+        <v>4064.820722</v>
+      </c>
+      <c r="F264" t="n">
+        <v>-0.0508260720120931</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.03566885482700233</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>263</v>
+      </c>
+      <c r="C265" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="D265" t="n">
+        <v>4064.648316</v>
+      </c>
+      <c r="E265" t="n">
+        <v>3831.536416</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.03562503571224962</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-0.0573910442685448</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>264</v>
+      </c>
+      <c r="C266" s="2" t="n">
+        <v>44564</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3831.30498</v>
+      </c>
+      <c r="E266" t="n">
         <v>0</v>
       </c>
-      <c r="F264" t="n">
-        <v>-0.05082597310016357</v>
-      </c>
-      <c r="G264" t="n">
+      <c r="F266" t="n">
+        <v>-0.05740800134699775</v>
+      </c>
+      <c r="G266" t="n">
         <v>-1</v>
       </c>
     </row>
